--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_44_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_44_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.013830879089154, 5.521127829898022]</t>
+          <t>[5.009901013206152, 5.525057695781024]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.1326610218131954, 0.1481696041971272]</t>
+          <t>[-0.13284379456686146, 0.14835237695079329]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.9119311386784106</v>
+        <v>0.9120451444358535</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9119311386784106</v>
+        <v>0.9120451444358535</v>
       </c>
       <c r="W2" t="n">
         <v>18.16636636636667</v>
